--- a/biology/Botanique/Iodes/Iodes.xlsx
+++ b/biology/Botanique/Iodes/Iodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iodes est un genre de plantes de la famille des Icacinaceae dans la classification phylogénétique. 
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Iodes balansae Gagnepain
 Iodes cirrhosa Turczaninow
 Iodes seguinii (H. Léveillé) Rehder
 Iodes vitiginea (Hance) Hemsley
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Iodes africana Welw. ex Oliver
 Iodes balansae Gagnep.
 Iodes cirrhosa Turcz.
@@ -541,7 +555,7 @@
 Iodes vitiginea (Hance) Hance
 Iodes yangambiensis J. Louis ex Boutique
 Iodes yatesii Merr.
-Selon NCBI  (24 juillet 2017)[4] :
+Selon NCBI  (24 juillet 2017) :
 Iodes cirrhosa
 Iodes hookeriana
 Iodes klaineana
@@ -550,7 +564,7 @@
 Iodes scandens
 Iodes seretii
 Iodes vitiginea
-Selon The Plant List            (24 juillet 2017)[5] :
+Selon The Plant List            (24 juillet 2017) :
 Iodes africana Welw. ex Oliv.
 Iodes cirrhosa Turcz.
 Iodes kamerunensis Engl.
@@ -566,7 +580,7 @@
 Iodes vitiginea (Hance) Hance
 Iodes yangambiensis Louis ex Boutique
 Iodes yatesii Merr.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Iodes africana Welw. ex Oliv.
 Iodes balansae Gagnep.
 Iodes cirrhosa Turcz.
@@ -588,7 +602,7 @@
 Iodes usambarensis Sleumer
 Iodes vitigenea (Hance) Hance
 Iodes vitiginea (Hance) Hemsl.
-Selon World Register of Marine Species                               (24 juillet 2017)[6] :
+Selon World Register of Marine Species                               (24 juillet 2017) :
 Janthina chavani (Ludbrook, 1978) †
 Janthina exigua Lamarck, 1816
 Janthina globosa Swainson, 1822
